--- a/BackEnd/src/Data.xlsx
+++ b/BackEnd/src/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BackEnd\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFD3795-6340-4658-A5F0-A48130C78FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B5710B-C698-45F5-90E3-B06CC8A7D865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1332" windowWidth="21000" windowHeight="10572" activeTab="1" xr2:uid="{B5284AB9-AA9B-4715-A86D-4094D91FDBE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B5284AB9-AA9B-4715-A86D-4094D91FDBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Môn Học" sheetId="1" r:id="rId1"/>
@@ -30231,7 +30231,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -30273,6 +30273,8 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
     <font>
       <sz val="10"/>
@@ -30289,6 +30291,8 @@
       <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
     <font>
       <b/>
@@ -30306,6 +30310,8 @@
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="5">
@@ -30620,38 +30626,38 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -30991,8 +30997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D953A0-0CEF-4623-B99F-A6660FC813D2}">
   <dimension ref="A1:I440"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -43778,7 +43784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212FC40F-174E-451F-B80C-02862620BDF1}">
   <dimension ref="A1:K601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -82785,6 +82791,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3c037d40-4ddd-4d08-8057-1e21d5502075" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100F09BC4BC36DFF64394B07031EA1BF778" ma:contentTypeVersion="13" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="3628f27040d3c53916d1bce770bbf34d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c037d40-4ddd-4d08-8057-1e21d5502075" xmlns:ns4="46d325d3-769f-4ecb-8396-d6caeae14e3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc56b4278371e0ac2ff01dd6097561cf" ns3:_="" ns4:_="">
     <xsd:import namespace="3c037d40-4ddd-4d08-8057-1e21d5502075"/>
@@ -83003,24 +83026,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AFB52A-E050-429C-8770-97EAF125B906}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46d325d3-769f-4ecb-8396-d6caeae14e3e"/>
+    <ds:schemaRef ds:uri="3c037d40-4ddd-4d08-8057-1e21d5502075"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3c037d40-4ddd-4d08-8057-1e21d5502075" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{879D738D-9558-48B6-853B-50692F1249FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E03647A-2DE9-40AC-B13C-B3BA0B2B310F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -83037,29 +83068,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{879D738D-9558-48B6-853B-50692F1249FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AFB52A-E050-429C-8770-97EAF125B906}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46d325d3-769f-4ecb-8396-d6caeae14e3e"/>
-    <ds:schemaRef ds:uri="3c037d40-4ddd-4d08-8057-1e21d5502075"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>